--- a/UN Population Datasets/UN Population Dataset 2.xlsx
+++ b/UN Population Datasets/UN Population Dataset 2.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6758" uniqueCount="496">
   <si>
-    <t>Code</t>
+    <t>M49 Code</t>
   </si>
   <si>
     <t>Region/Country/Area</t>
